--- a/APICase/TestCase.xlsx
+++ b/APICase/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>No.</t>
   </si>
@@ -67,9 +67,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>"msg":"实名认证失败"</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -140,6 +137,26 @@
   </si>
   <si>
     <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","type" : "1","data":"test"}</t>
+  </si>
+  <si>
+    <t>test describe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"实名认证冒烟测试"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"未输入验证码的芝麻分异常测试"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"未输入用户名的运营商认证"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"缺少通讯录字段的测试校验"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -496,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -513,11 +530,11 @@
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="28.875" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="9" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25">
+    <row r="1" spans="1:11" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +563,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -574,63 +594,66 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -639,24 +662,27 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -665,30 +691,30 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -697,62 +723,65 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -761,30 +790,30 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -793,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J504">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3:K504">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E504">

--- a/APICase/TestCase.xlsx
+++ b/APICase/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -100,15 +100,6 @@
     <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","realName" : "洪乃武","idCard":"360281199312211010"}</t>
   </si>
   <si>
-    <t>天机api认证</t>
-  </si>
-  <si>
-    <t>/tjVerify/apiVerify</t>
-  </si>
-  <si>
-    <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","type" : "202"}</t>
-  </si>
-  <si>
     <t>用户额度查询</t>
   </si>
   <si>
@@ -116,46 +107,29 @@
   </si>
   <si>
     <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","realName" : "洪乃武","phone":"17348518942"}</t>
-  </si>
-  <si>
-    <t>手机通讯录上传</t>
-  </si>
-  <si>
-    <t>/baseVerify/addContacts</t>
-  </si>
-  <si>
-    <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","userName" : "洪乃武","appellation":"老王","phone":"17348518942"}</t>
-  </si>
-  <si>
-    <t>"msg":"成功"</t>
-  </si>
-  <si>
-    <t>手机通话和短信记录</t>
-  </si>
-  <si>
-    <t>/baseVerify/addSelfContacts</t>
-  </si>
-  <si>
-    <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","type" : "1","data":"test"}</t>
   </si>
   <si>
     <t>test describe</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"实名认证冒烟测试"</t>
+    <t>缺少通讯录字段的测试校验</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"未输入验证码的芝麻分异常测试"</t>
+    <t>未输入用户名的运营商认证</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"未输入用户名的运营商认证"</t>
+    <t>未输入验证码的芝麻分异常测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"缺少通讯录字段的测试校验"</t>
+    <t>实名认证冒烟测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"用户不存在"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -513,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -563,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -594,8 +568,11 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -627,10 +604,10 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -665,7 +642,7 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -720,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -731,119 +708,26 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
       <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3:K504">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K501">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E504">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E501">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F504">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F501">
       <formula1>"Form,Data,File"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H504">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H501">
       <formula1>"No,MD5,DES"</formula1>
     </dataValidation>
   </dataValidations>
@@ -853,9 +737,6 @@
     <hyperlink ref="C4" r:id="rId3" tooltip="http://116.62.67.80:9050"/>
     <hyperlink ref="C5" r:id="rId4" tooltip="http://116.62.67.80:9050"/>
     <hyperlink ref="C6" r:id="rId5" tooltip="http://116.62.67.80:9050"/>
-    <hyperlink ref="C7" r:id="rId6" tooltip="http://116.62.67.80:9050"/>
-    <hyperlink ref="C9" r:id="rId7" tooltip="http://116.62.67.80:9050"/>
-    <hyperlink ref="C8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/APICase/TestCase.xlsx
+++ b/APICase/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>No.</t>
   </si>
@@ -113,23 +113,50 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>未输入用户名的运营商认证</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未输入验证码的芝麻分异常测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证冒烟测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"用户不存在"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
     <t>缺少通讯录字段的测试校验</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>未输入用户名的运营商认证</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未输入验证码的芝麻分异常测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名认证冒烟测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg":"用户不存在"</t>
+    <t>{"name": "hongnaiwu", "age": "26"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://httpbin.org</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/get</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"age"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>get方式接口请求的冒烟测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息查询</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -487,11 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -569,10 +596,10 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -604,10 +631,10 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -642,7 +669,7 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -709,9 +736,44 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -737,6 +799,7 @@
     <hyperlink ref="C4" r:id="rId3" tooltip="http://116.62.67.80:9050"/>
     <hyperlink ref="C5" r:id="rId4" tooltip="http://116.62.67.80:9050"/>
     <hyperlink ref="C6" r:id="rId5" tooltip="http://116.62.67.80:9050"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/APICase/TestCase.xlsx
+++ b/APICase/TestCase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="27460" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>No.</t>
   </si>
@@ -22,9 +22,6 @@
     <t>API Purpose</t>
   </si>
   <si>
-    <t>API Host</t>
-  </si>
-  <si>
     <t>Request URL</t>
   </si>
   <si>
@@ -43,13 +40,16 @@
     <t>Check Point</t>
   </si>
   <si>
+    <t>test describe</t>
+  </si>
+  <si>
+    <t>relevance_case</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>实名认证</t>
-  </si>
-  <si>
-    <t>http://116.62.67.80:9050</t>
+    <t>获取商品分类列表</t>
   </si>
   <si>
     <t>/baseVerify/faceAuthentication</t>
@@ -61,110 +61,186 @@
     <t>Data</t>
   </si>
   <si>
-    <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","phone" : "17348518942"}</t>
+    <t>{
+ "page":1,
+ "pageSize":9999,
+ "session_3rd":"80A2497D3B3D9061558A45C37D150301",
+ "openid":"",
+ "storeId":465,
+ "companyId":465,
+ "systemType":"mall"
+}</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>"操作成功!"</t>
+  </si>
+  <si>
+    <t>获取商品分类列表冒烟测试</t>
+  </si>
+  <si>
+    <t>获取用户是否含有会员卡</t>
+  </si>
+  <si>
+    <t>/client/memberCard/isObtainCard</t>
+  </si>
+  <si>
+    <t>{
+ "session_3rd":"7BAA8F16C032F39CEB444BC6D7E92255",
+ "openid":"oBF_i5KS7GZNbRXAiYyDOjFwL_8s",
+ "storeId":465,
+ "companyId":465,
+ "systemType":"mall"
+}</t>
+  </si>
+  <si>
+    <t>校验用户是否已领取过会员卡</t>
+  </si>
+  <si>
+    <t>获取商品的优惠券列表</t>
+  </si>
+  <si>
+    <t>/client/mallCoupon/getCouponInfoByGoodsId</t>
+  </si>
+  <si>
+    <t>{
+ "goodsId":"$goodsId",
+ "session_3rd":"9326ED712ED8AC32CAFBE322F85AD8F1",
+ "openid":"",
+ "storeId":465,
+ "companyId":465,
+ "systemType":"mall"
+}</t>
+  </si>
+  <si>
+    <t>"data":[{}]</t>
+  </si>
+  <si>
+    <t>获取商城某个商品的优惠券列表</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>芝麻分认证</t>
-  </si>
-  <si>
-    <t>/riskVerify/zhiMaAuth</t>
+    <t>获取商品详情</t>
+  </si>
+  <si>
+    <t>/client/mall/goods/info</t>
+  </si>
+  <si>
+    <t>{
+ "id": "1005",
+ "session_3rd": "9326ED712ED8AC32CAFBE322F85AD8F1",
+ "openid": "",
+ "storeId": 465,
+ "companyId": 465,
+ "systemType": "mall"
+}</t>
+  </si>
+  <si>
+    <t>获取商品详情的冒烟测试</t>
+  </si>
+  <si>
+    <t>立即购买</t>
+  </si>
+  <si>
+    <t>/client/mall/orders/directSetAccounts</t>
+  </si>
+  <si>
+    <t>{
+ "useCoupon": 0,
+ "orderType": 0,
+ "goodsType": 1,
+ "goodsName": "$goodsName",
+ "goodsPrice": 100,
+ "propertyLabel": "$propertyLabel",
+ "goodsId": "$goodsId",
+ "stockId": 5057,
+ "picturePath": "http://test.ydxcx.net/group1/M00/00/65/rBsADVwkcdOAFAuuAAFdVo7fjgo890.jpg",
+ "stockNum": 1,
+ "goodsNo": "",
+ "categoryId": "$categoryId",
+ "num": 1,
+ "labelArr": {},
+ "sellPrice": "$sellPrice",
+ "session_3rd": "80A2497D3B3D9061558A45C37D150301",
+ "openid": "oBF_i5KS7GZNbRXAiYyDOjFwL_8s",
+ "storeId": 465,
+ "companyId": 465,
+ "systemType": "mall"
+}</t>
+  </si>
+  <si>
+    <t>关联商品详情接口后请求立即下单接口的冒烟测试</t>
+  </si>
+  <si>
+    <t>获取首页装修内容</t>
+  </si>
+  <si>
+    <t>/client/mall/index</t>
+  </si>
+  <si>
+    <t>{
+ "session_3rd":"",
+ "openid":"",
+ "storeId":465,
+ "companyId":465,
+ "systemType":"mall"
+}</t>
+  </si>
+  <si>
+    <t>校验首页装修内容获取的冒烟测试</t>
+  </si>
+  <si>
+    <t>用户额度查询</t>
+  </si>
+  <si>
+    <t>/baseVerify/userAmount</t>
   </si>
   <si>
     <t>Form</t>
   </si>
   <si>
-    <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","idCard" : "360281199312211010","name":"洪乃武","mobile":"17348518942","notifyUrl":"www.baidu.com"}</t>
+    <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","realName" : "洪乃武","phone":"17348518942"}</t>
   </si>
   <si>
     <t>"msg":"用户不存在"</t>
   </si>
   <si>
-    <t>运营商认证</t>
-  </si>
-  <si>
-    <t>/tjVerify/operatorVerify</t>
-  </si>
-  <si>
-    <t>身份证纠错</t>
-  </si>
-  <si>
-    <t>/baseVerify/faceErrorCorrect</t>
-  </si>
-  <si>
-    <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","realName" : "洪乃武","idCard":"360281199312211010"}</t>
-  </si>
-  <si>
-    <t>用户额度查询</t>
-  </si>
-  <si>
-    <t>/baseVerify/userAmount</t>
-  </si>
-  <si>
-    <t>{"userId" : "f000212cb3434a0db94fe1f8dbcb749d","realName" : "洪乃武","phone":"17348518942"}</t>
-  </si>
-  <si>
-    <t>test describe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未输入用户名的运营商认证</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未输入验证码的芝麻分异常测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名认证冒烟测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg":"用户不存在"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>缺少通讯录字段的测试校验</t>
+  </si>
+  <si>
+    <t>用户信息查询</t>
+  </si>
+  <si>
+    <t>/get</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>缺少通讯录字段的测试校验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name": "hongnaiwu", "age": "26"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://httpbin.org</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/get</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"age"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>get方式接口请求的冒烟测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,37 +257,352 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -219,34 +610,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -508,34 +1181,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="10" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="28.0480769230769" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="17.9423076923077" customWidth="1"/>
+    <col min="9" max="9" width="25.3173076923077" customWidth="1"/>
+    <col min="10" max="10" width="16.8173076923077" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25">
+    <row r="1" ht="17.6" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,244 +1239,309 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" ht="185" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" ht="202" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" ht="185" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" ht="168" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" ht="409.5" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" ht="118" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K501">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D2:D4 D7:D503">
+      <formula1>"POST,GET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E6 E2:E4 E7:E503">
+      <formula1>"Form,Data,File"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G6 G2:G4 G7:G503">
+      <formula1>"No,MD5,DES"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K6 K2:K4 K7:K503">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E501">
-      <formula1>"POST,GET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F501">
-      <formula1>"Form,Data,File"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H501">
-      <formula1>"No,MD5,DES"</formula1>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="http://116.62.67.80:9050"/>
-    <hyperlink ref="C3" r:id="rId2" tooltip="http://116.62.67.80:9050"/>
-    <hyperlink ref="C4" r:id="rId3" tooltip="http://116.62.67.80:9050"/>
-    <hyperlink ref="C5" r:id="rId4" tooltip="http://116.62.67.80:9050"/>
-    <hyperlink ref="C6" r:id="rId5" tooltip="http://116.62.67.80:9050"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>